--- a/Ukoly.xlsx
+++ b/Ukoly.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>U upraveného i nově vytvořeného produktu zůstáva obdélnícek.
 http://www.horejsi.cz/Pages/DetailProdukt.aspx?objcislo=2136</t>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Do seznamu kontaktů na webu přidat adresu servis@horejsi.cz</t>
-  </si>
-  <si>
-    <t>Stupka</t>
   </si>
   <si>
     <t>Přenést nastavení slideru na jiný počítač</t>
@@ -434,6 +431,12 @@
   </si>
   <si>
     <t>Deploy</t>
+  </si>
+  <si>
+    <t>upraveno</t>
+  </si>
+  <si>
+    <t>Sporka</t>
   </si>
 </sst>
 </file>
@@ -848,8 +851,8 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,6 +862,7 @@
     <col min="3" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -872,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>22</v>
@@ -884,7 +888,7 @@
         <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -931,23 +935,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="4">
+        <v>41599</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>26</v>
@@ -1035,7 +1042,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
@@ -1044,7 +1051,7 @@
         <v>41465</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4">
         <v>41466</v>
@@ -1066,7 +1073,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>26</v>
@@ -1097,7 +1104,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>26</v>
@@ -1114,17 +1121,17 @@
         <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4">
         <v>41465</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="4">
         <v>41465</v>
@@ -1132,7 +1139,7 @@
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
@@ -1144,33 +1151,36 @@
     </row>
     <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4">
         <v>41498</v>
+      </c>
+      <c r="G22" s="4">
+        <v>41589</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D23" s="9">
         <v>41507</v>
@@ -1178,10 +1188,10 @@
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D24" s="9">
         <v>41507</v>
@@ -1189,13 +1199,13 @@
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="4">
         <v>41514</v>
@@ -1206,47 +1216,53 @@
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D26" s="4">
         <v>41520</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="4">
         <v>41535</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>61</v>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="4">
+        <v>41589</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D28" s="4">
         <v>41537</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4">
         <v>41540</v>
@@ -1254,10 +1270,10 @@
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>28</v>
@@ -1266,7 +1282,7 @@
         <v>41544</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="4">
         <v>41544</v>
